--- a/fuentes/contenidos/grado08/guion05/Solicitud_Grafica_LE_08_05_REC130.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Solicitud_Grafica_LE_08_05_REC130.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="200">
   <si>
     <t>Fecha:</t>
   </si>
@@ -613,18 +613,6 @@
     <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=00009E01&amp;ruta=Buscador</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/node/86383</t>
-  </si>
-  <si>
-    <t>Contertulios del Café Victoria: Eduardo Zalamea Borda, León de Greiff, José Vicente Combariza ("José Mar") y Alberto Lleras Camargo. Caricatura de Adolfo Samper, 1933.</t>
-  </si>
-  <si>
-    <t>http://www.banrepcultural.org/node/73401</t>
-  </si>
-  <si>
-    <t>Carátula de La vorágine.</t>
-  </si>
-  <si>
     <t>LE_08_05_REC130</t>
   </si>
   <si>
@@ -635,6 +623,15 @@
   </si>
   <si>
     <t>Aguafuerte de la serie Los desastres de la guerra de Francisco de Goya (Biblioteca Nacional, Madrid, España)</t>
+  </si>
+  <si>
+    <t>Forest wild leaves. Vector. Hand drawn artwork. Set collection. Bohemia concept for invitations, cards, tickets, congratulations, branding, logo, label. Coloring book page for adult. Black and white</t>
+  </si>
+  <si>
+    <t>A pair of eyeglasses on a pile of books placed in an old suitcase, with a retro effect</t>
+  </si>
+  <si>
+    <t>Facade of the Colon Theater in the historic center of Bogota, Colombia</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2509,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2707,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2836,7 +2833,7 @@
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -2879,7 +2876,7 @@
       </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
@@ -2922,20 +2919,20 @@
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>193</v>
+      <c r="B13" s="62">
+        <v>301752224</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2963,22 +2960,22 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="K13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>198</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>195</v>
+      <c r="B14" s="62">
+        <v>321711437</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3006,16 +3003,16 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -3050,7 +3047,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="K15" s="66" t="s">
+        <v>199</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
